--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.951738</v>
+        <v>3.883322333333334</v>
       </c>
       <c r="H2">
-        <v>5.855214</v>
+        <v>11.649967</v>
       </c>
       <c r="I2">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985499</v>
       </c>
       <c r="J2">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985498</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>230.3968397574353</v>
+        <v>494.7323773692914</v>
       </c>
       <c r="R2">
-        <v>2073.571557816918</v>
+        <v>4452.591396323623</v>
       </c>
       <c r="S2">
-        <v>0.05591559823893363</v>
+        <v>0.09867595402093862</v>
       </c>
       <c r="T2">
-        <v>0.05591559823893363</v>
+        <v>0.09867595402093864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.951738</v>
+        <v>3.883322333333334</v>
       </c>
       <c r="H3">
-        <v>5.855214</v>
+        <v>11.649967</v>
       </c>
       <c r="I3">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985499</v>
       </c>
       <c r="J3">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985498</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>115.8666152739493</v>
+        <v>230.5367906865924</v>
       </c>
       <c r="R3">
-        <v>1042.799537465544</v>
+        <v>2074.831116179332</v>
       </c>
       <c r="S3">
-        <v>0.02811996516872433</v>
+        <v>0.04598129978653984</v>
       </c>
       <c r="T3">
-        <v>0.02811996516872433</v>
+        <v>0.04598129978653984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.951738</v>
+        <v>3.883322333333334</v>
       </c>
       <c r="H4">
-        <v>5.855214</v>
+        <v>11.649967</v>
       </c>
       <c r="I4">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985499</v>
       </c>
       <c r="J4">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985498</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>37.49921711691334</v>
+        <v>64.59033601195389</v>
       </c>
       <c r="R4">
-        <v>337.49295405222</v>
+        <v>581.313024107585</v>
       </c>
       <c r="S4">
-        <v>0.009100780899561805</v>
+        <v>0.01288274897309793</v>
       </c>
       <c r="T4">
-        <v>0.009100780899561805</v>
+        <v>0.01288274897309793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.951738</v>
+        <v>3.883322333333334</v>
       </c>
       <c r="H5">
-        <v>5.855214</v>
+        <v>11.649967</v>
       </c>
       <c r="I5">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985499</v>
       </c>
       <c r="J5">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985498</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>110.9466721718113</v>
+        <v>232.6211911322655</v>
       </c>
       <c r="R5">
-        <v>998.5200495463019</v>
+        <v>2093.590720190389</v>
       </c>
       <c r="S5">
-        <v>0.02692593159540279</v>
+        <v>0.04639704011797346</v>
       </c>
       <c r="T5">
-        <v>0.02692593159540279</v>
+        <v>0.04639704011797347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.654910333333333</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H6">
         <v>28.964731</v>
       </c>
       <c r="I6">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="J6">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>1139.733319196228</v>
+        <v>1230.028396431682</v>
       </c>
       <c r="R6">
-        <v>10257.59987276605</v>
+        <v>11070.25556788514</v>
       </c>
       <c r="S6">
-        <v>0.2766047938973343</v>
+        <v>0.2453330953113305</v>
       </c>
       <c r="T6">
-        <v>0.2766047938973343</v>
+        <v>0.2453330953113305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.654910333333333</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H7">
         <v>28.964731</v>
       </c>
       <c r="I7">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="J7">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
-        <v>573.1721066540752</v>
+        <v>573.1721066540749</v>
       </c>
       <c r="R7">
-        <v>5158.548959886676</v>
+        <v>5158.548959886675</v>
       </c>
       <c r="S7">
-        <v>0.1391046043477608</v>
+        <v>0.1143210087502809</v>
       </c>
       <c r="T7">
-        <v>0.1391046043477608</v>
+        <v>0.1143210087502809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.654910333333333</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H8">
         <v>28.964731</v>
       </c>
       <c r="I8">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="J8">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>185.5021415958478</v>
+        <v>160.5877259382672</v>
       </c>
       <c r="R8">
-        <v>1669.51927436263</v>
+        <v>1445.289533444405</v>
       </c>
       <c r="S8">
-        <v>0.04501998913203611</v>
+        <v>0.03202973523841808</v>
       </c>
       <c r="T8">
-        <v>0.04501998913203611</v>
+        <v>0.03202973523841808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.654910333333333</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H9">
         <v>28.964731</v>
       </c>
       <c r="I9">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="J9">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>548.8339990308981</v>
+        <v>578.3544473598641</v>
       </c>
       <c r="R9">
-        <v>4939.505991278083</v>
+        <v>5205.190026238777</v>
       </c>
       <c r="S9">
-        <v>0.1331979267683884</v>
+        <v>0.1153546431688012</v>
       </c>
       <c r="T9">
-        <v>0.1331979267683884</v>
+        <v>0.1153546431688012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.598460000000001</v>
+        <v>4.652793333333332</v>
       </c>
       <c r="H10">
-        <v>10.79538</v>
+        <v>13.95838</v>
       </c>
       <c r="I10">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="J10">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>424.7874520010067</v>
+        <v>592.7624105393577</v>
       </c>
       <c r="R10">
-        <v>3823.08706800906</v>
+        <v>5334.861694854219</v>
       </c>
       <c r="S10">
-        <v>0.1030927530431201</v>
+        <v>0.1182283574783335</v>
       </c>
       <c r="T10">
-        <v>0.1030927530431201</v>
+        <v>0.1182283574783336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.598460000000001</v>
+        <v>4.652793333333332</v>
       </c>
       <c r="H11">
-        <v>10.79538</v>
+        <v>13.95838</v>
       </c>
       <c r="I11">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="J11">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>213.6256917673867</v>
+        <v>276.2171024504977</v>
       </c>
       <c r="R11">
-        <v>1922.63122590648</v>
+        <v>2485.953922054479</v>
       </c>
       <c r="S11">
-        <v>0.05184536544405436</v>
+        <v>0.05509238397966636</v>
       </c>
       <c r="T11">
-        <v>0.05184536544405436</v>
+        <v>0.05509238397966637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.598460000000001</v>
+        <v>4.652793333333332</v>
       </c>
       <c r="H12">
-        <v>10.79538</v>
+        <v>13.95838</v>
       </c>
       <c r="I12">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="J12">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>69.13808760526669</v>
+        <v>77.38875606965554</v>
       </c>
       <c r="R12">
-        <v>622.2427884474001</v>
+        <v>696.4988046268999</v>
       </c>
       <c r="S12">
-        <v>0.01677929928906297</v>
+        <v>0.01543543476227106</v>
       </c>
       <c r="T12">
-        <v>0.01677929928906297</v>
+        <v>0.01543543476227106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.598460000000001</v>
+        <v>4.652793333333332</v>
       </c>
       <c r="H13">
-        <v>10.79538</v>
+        <v>13.95838</v>
       </c>
       <c r="I13">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="J13">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>204.5546902009267</v>
+        <v>278.7145218417178</v>
       </c>
       <c r="R13">
-        <v>1840.99221180834</v>
+        <v>2508.43069657546</v>
       </c>
       <c r="S13">
-        <v>0.04964390087644608</v>
+        <v>0.05559050225995647</v>
       </c>
       <c r="T13">
-        <v>0.04964390087644608</v>
+        <v>0.05559050225995648</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.050938666666666</v>
+        <v>0.8507443333333334</v>
       </c>
       <c r="H14">
-        <v>3.152816</v>
+        <v>2.552233</v>
       </c>
       <c r="I14">
-        <v>0.06464909129917416</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="J14">
-        <v>0.06464909129917418</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>124.0601697455769</v>
+        <v>108.3841953964641</v>
       </c>
       <c r="R14">
-        <v>1116.541527710192</v>
+        <v>975.457758568177</v>
       </c>
       <c r="S14">
-        <v>0.03010847985697563</v>
+        <v>0.021617574209328</v>
       </c>
       <c r="T14">
-        <v>0.03010847985697564</v>
+        <v>0.021617574209328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.050938666666666</v>
+        <v>0.8507443333333334</v>
       </c>
       <c r="H15">
-        <v>3.152816</v>
+        <v>2.552233</v>
       </c>
       <c r="I15">
-        <v>0.06464909129917416</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="J15">
-        <v>0.06464909129917418</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>62.38988335892622</v>
+        <v>50.50517352576311</v>
       </c>
       <c r="R15">
-        <v>561.5089502303359</v>
+        <v>454.546561731868</v>
       </c>
       <c r="S15">
-        <v>0.01514156034320808</v>
+        <v>0.01007341829363979</v>
       </c>
       <c r="T15">
-        <v>0.01514156034320808</v>
+        <v>0.0100734182936398</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.050938666666666</v>
+        <v>0.8507443333333334</v>
       </c>
       <c r="H16">
-        <v>3.152816</v>
+        <v>2.552233</v>
       </c>
       <c r="I16">
-        <v>0.06464909129917416</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="J16">
-        <v>0.06464909129917418</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>20.19194033107555</v>
+        <v>14.15021922815722</v>
       </c>
       <c r="R16">
-        <v>181.72746297968</v>
+        <v>127.351973053415</v>
       </c>
       <c r="S16">
-        <v>0.004900433636180136</v>
+        <v>0.00282230645458967</v>
       </c>
       <c r="T16">
-        <v>0.004900433636180138</v>
+        <v>0.00282230645458967</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.050938666666666</v>
+        <v>0.8507443333333334</v>
       </c>
       <c r="H17">
-        <v>3.152816</v>
+        <v>2.552233</v>
       </c>
       <c r="I17">
-        <v>0.06464909129917416</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="J17">
-        <v>0.06464909129917418</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>59.74067611705421</v>
+        <v>50.96181650189013</v>
       </c>
       <c r="R17">
-        <v>537.6660850534879</v>
+        <v>458.6563485170111</v>
       </c>
       <c r="S17">
-        <v>0.01449861746281031</v>
+        <v>0.01016449719483461</v>
       </c>
       <c r="T17">
-        <v>0.01449861746281031</v>
+        <v>0.01016449719483461</v>
       </c>
     </row>
   </sheetData>
